--- a/status/RC1_punchlist_v5.xlsx
+++ b/status/RC1_punchlist_v5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="26800" windowHeight="24200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="26660" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+  <si>
+    <r>
+      <t>Only one pic showing up in elbow section… Why?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="57"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve"> Three reasons:</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>True TX M Elliptical Pic will not work, Mandy to send replacement.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve"> Where in site? </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mandy will provide Compression Unit &amp; Sleeves Pic &amp; I will provide content. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve">Where in site? </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Need icon for LTL trucking; others?  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing 1 image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) we are missing the image for 750124-000 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(3) the latter is missing part _number and has image_url 0-000 in spreadsheet used to load database. Should be 750119-900. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed Products</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Spell Elbow correctly in Orthopedic section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) images names in db were incorrect: 750123-900 vs. 750123-000;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Under Modalities, Continuous Passive Motion pic is wrong; Mandy sent the right pic [ images/categories/all/710168-00.jpg ]  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where is Lateral J Knee Brace pic…. Does Mandy need to send again? ( Orthodepics/Knee 750178-000.jpg ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve">Yes. We don't have this image. </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>changed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spelling error: Taping&amp;Wrapping/Tape: Tenderskin Hypoallergeic 'Pape' -&gt; 'Tape'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLC-&gt;Product is 1:n, not m:n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make Sombra in Dual location, add to Topical Analgesics under Clinic Supplies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place Sling (currently in Collars &amp; Slings) also in Shoulder as well</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>add Tru-Medical logomark to pages; make it fade-in as well as slide down the page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tru-Band Pic is old. Mandy did send replacement and she will send again. referring to: Cinical Products / Resistive Exercise / Banding &amp; Tubing/ Tru-Exercise Band (72005-000.jpg)? </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -56,10 +189,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Spell Elbow correctly in Orthopedic section, also only one pic showing up in elbow section… Why?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>LL Category page template: increase height of product boxes to accommodate 3-line product names; in views/categories/show.html.erb — move to a .css file?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,22 +299,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Need icons for LTL trucking; others?  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>add Tru-Medical logomark to pages</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>reviewed sample w/Bill</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Taping&amp;Wrapping/Tape: Tenderskin Hypoallergeic 'Pape' -&gt; 'Tape'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>fixed</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -234,18 +351,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Make Sombra in Dual location, add to Topical Analgesics under Clinic Supplies</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Consolidate Formfit Wrist Brace in Orthopedics/Hand &amp; Wrist 750103- (8”) &amp; 750104- (6”) together. Put additional bullet to read Offered in both 6” and 8” models</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Place Sling (currently in Collars &amp; Slings) also in Shoulder as well</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Consolidate Stainless Steel Goniometers in Eval section</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -266,27 +375,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Under Modalities, Continuous Passive Motion pic is wrong; Mandy sent the right pic </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Need Home button at top area.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>True TX M Elliptical Pic will not work, Mandy to send replacement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tru-Band Pic is old. Mandy did send replacement and she will send again.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mandy will provide additional pics for Quantum fitness equipment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Where is Lateral J Knee Brace pic…. Does Mandy need to send again?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -338,7 +431,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -383,16 +476,32 @@
       <color indexed="10"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -400,11 +509,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -423,6 +560,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -771,49 +924,49 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="K2" s="13" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="K3" s="13" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -824,10 +977,10 @@
         <v>39536</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
@@ -836,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -847,10 +1000,10 @@
         <v>39536</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
@@ -860,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -878,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -887,10 +1040,10 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="4"/>
@@ -900,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -912,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -920,14 +1073,14 @@
         <v>39536</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -935,14 +1088,14 @@
         <v>39536</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -950,14 +1103,14 @@
         <v>39536</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -969,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -980,17 +1133,17 @@
         <v>39537</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8">
         <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -998,477 +1151,594 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:17">
       <c r="A18" s="2"/>
       <c r="G18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="7">
+        <v>39536</v>
+      </c>
+      <c r="B19" s="7">
+        <v>39537</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="18">
         <f>H14+1</f>
         <v>11</v>
       </c>
-      <c r="I19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H20">
+      <c r="I19" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="7">
+        <v>39536</v>
+      </c>
+      <c r="B20" s="7">
+        <v>39537</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="21">
         <f>H19+1</f>
         <v>12</v>
       </c>
-      <c r="I20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ref="H21:H23" si="2">H20+1</f>
+      <c r="I20" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="7">
+        <v>39536</v>
+      </c>
+      <c r="B21" s="7">
+        <v>39537</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="H21" s="16">
+        <f>H20+1</f>
         <v>13</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2"/>
+      <c r="C22" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2"/>
+      <c r="C23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2"/>
+      <c r="C24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
+        <v>39536</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="16">
+        <f>H21+1</f>
         <v>14</v>
       </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
+      <c r="I25" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="7">
+        <v>39536</v>
+      </c>
+      <c r="B26" s="7">
+        <v>39537</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="18">
+        <f>H25+1</f>
         <v>15</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2">
+        <v>39536</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27" si="2">H26+1</f>
+        <v>16</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2">
+        <v>39536</v>
+      </c>
+      <c r="H28">
+        <f>H27+1</f>
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2">
+        <v>39536</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H30" si="3">H28+1</f>
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="5">
+        <v>39537</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2"/>
+      <c r="G31" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H24" s="10">
-        <f>H23+1</f>
-        <v>16</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="H25" s="10">
-        <f>H24+1</f>
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5">
-        <v>39537</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
-        <f>H25+1</f>
-        <v>18</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="G27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="7">
-        <v>39536</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7">
-        <v>39537</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8">
-        <f>H26+1</f>
-        <v>19</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7">
-        <v>39537</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8">
-        <f>H29+1</f>
-        <v>20</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7">
-        <v>39537</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7">
-        <v>39537</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>29</v>
-      </c>
+    <row r="32" spans="1:17">
+      <c r="A32" s="7">
+        <v>39536</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8">
-        <f>H30+1</f>
-        <v>21</v>
-      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:13">
       <c r="A33" s="7"/>
       <c r="B33" s="7">
         <v>39537</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8">
-        <v>19</v>
+        <f>H30+1</f>
+        <v>20</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:13">
       <c r="A34" s="7"/>
       <c r="B34" s="7">
         <v>39537</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8">
         <f>H33+1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="7">
-        <v>39537</v>
-      </c>
+    <row r="35" spans="1:13">
+      <c r="A35" s="7"/>
       <c r="B35" s="7">
         <v>39537</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="8">
-        <v>21</v>
-      </c>
+      <c r="H35" s="8"/>
       <c r="I35" s="8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="7">
-        <v>39536</v>
-      </c>
+    <row r="36" spans="1:13">
+      <c r="A36" s="7"/>
       <c r="B36" s="7">
         <v>39537</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="8">
-        <f>H35+1</f>
+        <f>H34+1</f>
         <v>22</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="2"/>
-      <c r="F38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7">
+        <v>39537</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
+        <v>19</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7">
+        <v>39537</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <f>H37+1</f>
+        <v>20</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="7">
+        <v>39537</v>
+      </c>
+      <c r="B39" s="7">
+        <v>39537</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
+        <v>21</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="7">
+        <v>39536</v>
+      </c>
+      <c r="B40" s="7">
+        <v>39537</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="8">
+        <f>H39+1</f>
+        <v>22</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2"/>
+      <c r="F42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2">
+        <v>39536</v>
+      </c>
+      <c r="H43">
+        <f>H40+1</f>
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="5">
+        <v>39537</v>
+      </c>
+      <c r="H44" s="4">
+        <f>H43+1</f>
+        <v>24</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2"/>
+      <c r="F45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2">
+        <v>39536</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="14">
+        <f>H44+1</f>
+        <v>25</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2">
+        <v>39536</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <f>H46+1</f>
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H39">
-        <f>H36+1</f>
-        <v>23</v>
-      </c>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="5">
-        <v>39537</v>
-      </c>
-      <c r="H40" s="4">
-        <f>H39+1</f>
-        <v>24</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="2"/>
-      <c r="F41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H42">
-        <f>H40+1</f>
-        <v>25</v>
-      </c>
-      <c r="I42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H43">
-        <f>H42+1</f>
-        <v>26</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H44">
-        <f t="shared" ref="H44:H45" si="3">H43+1</f>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2">
+        <v>39536</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" ref="H48:H49" si="4">H47+1</f>
         <v>27</v>
       </c>
-      <c r="I44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
+      <c r="I48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2">
+        <v>39536</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="I45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H46">
-        <f>H45+1</f>
+      <c r="I49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2">
+        <v>39536</v>
+      </c>
+      <c r="H50">
+        <f>H49+1</f>
         <v>29</v>
       </c>
-      <c r="I46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="2"/>
-      <c r="F47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H48">
-        <f>H46+1</f>
-        <v>30</v>
-      </c>
-      <c r="I48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="2"/>
-      <c r="E50" s="1" t="s">
+      <c r="I50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="2">
-        <v>39536</v>
-      </c>
-      <c r="H51">
-        <f>H48+1</f>
-        <v>31</v>
-      </c>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="F51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>39536</v>
       </c>
       <c r="H52">
-        <f>H51+1</f>
+        <f>H50+1</f>
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2"/>
+      <c r="E54" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2">
+        <v>39536</v>
+      </c>
+      <c r="H55">
+        <f>H52+1</f>
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2">
+        <v>39536</v>
+      </c>
+      <c r="H56">
+        <f>H55+1</f>
         <v>32</v>
       </c>
-      <c r="I52" t="s">
-        <v>64</v>
+      <c r="I56" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
